--- a/demo/AcevedoRocha_p450_selectivity.xlsx
+++ b/demo/AcevedoRocha_p450_selectivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/epiapp/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454C0E3-EFCF-0846-B515-B4BD7BA399D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF7429-0104-C541-93FD-EB0A58F1624D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="4360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="1940" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_name" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Replicate n°1</t>
   </si>
   <si>
@@ -68,6 +59,15 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>R47I</t>
+  </si>
+  <si>
+    <t>T49I</t>
+  </si>
+  <si>
+    <t>Y51I</t>
   </si>
 </sst>
 </file>
@@ -481,141 +481,141 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/demo/AcevedoRocha_p450_selectivity.xlsx
+++ b/demo/AcevedoRocha_p450_selectivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF7429-0104-C541-93FD-EB0A58F1624D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB008D87-5414-4A44-812E-800AD57C715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1940" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Replicate n°1</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Replicate n°3</t>
   </si>
   <si>
-    <t>Mutant 1</t>
-  </si>
-  <si>
     <t>Mutant 2</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Mutant 7</t>
   </si>
   <si>
-    <t>Mutant 8</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -68,6 +62,15 @@
   </si>
   <si>
     <t>Y51I</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Wild type</t>
+  </si>
+  <si>
+    <t>Triple</t>
   </si>
 </sst>
 </file>
@@ -481,20 +484,23 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -508,114 +514,114 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/demo/AcevedoRocha_p450_selectivity.xlsx
+++ b/demo/AcevedoRocha_p450_selectivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB008D87-5414-4A44-812E-800AD57C715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B72171-63A9-E94F-B3AC-2E10217E20DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1940" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40520" yWindow="3920" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_name" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Replicate n°1</t>
   </si>
   <si>
     <t>Replicate n°2</t>
-  </si>
-  <si>
-    <t>Replicate n°3</t>
   </si>
   <si>
     <t>Mutant 2</t>
@@ -77,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +92,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,11 +141,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,26 +486,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -508,120 +513,165 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-2.4220647137673845</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-2.2331005679511851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0401452797642525</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5519382538489881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-2.8936749483910984</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-3.1412622377821586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-2.2351892421797537</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-2.2222770863725909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-2.265929758751613</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-2.7211584097518839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.0131900772999902</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.3613908324710917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.5317429684274071</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.1839045404226525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.5977216306922974</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.591121507902395</v>
       </c>
     </row>
   </sheetData>
